--- a/Manual Testing/Assessments/Lapinoz Pizza/Test Cases & Defect Report of Lapinoz Pizza Website.xlsx
+++ b/Manual Testing/Assessments/Lapinoz Pizza/Test Cases & Defect Report of Lapinoz Pizza Website.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lapinoz" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="174">
   <si>
     <t>Testcase id</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Mobile number - 0000000000</t>
-  </si>
-  <si>
-    <t>A message should displayed that OTP sent sucessfully</t>
   </si>
   <si>
     <t>Fail</t>
@@ -211,25 +208,16 @@
     <t>A message displayed that contact number and email id is invalid. Please enter valid email id and contact number.</t>
   </si>
   <si>
-    <t>A message displayed that contact number and email id is invalid.</t>
-  </si>
-  <si>
     <t>With correct mobile number and incorrect email id</t>
   </si>
   <si>
     <t>A message displayed that email id is invalid. Please enter valid email id.</t>
   </si>
   <si>
-    <t>A message displayed that email id is invalid.</t>
-  </si>
-  <si>
     <t>With incorrect mobile number and correct email id</t>
   </si>
   <si>
     <t>A message displayed that contact number is invalid. Please enter valid contact number.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A message displayed that contact number is invalid. </t>
   </si>
   <si>
     <t>TC 11</t>
@@ -686,6 +674,54 @@
 3.Click on Frenchise Inquiry Menu
 4.Enter email id and other data
 5. Click on Send Message button</t>
+  </si>
+  <si>
+    <t>Message displayed that please enter mobile number</t>
+  </si>
+  <si>
+    <t>Message displayed that OTP sent sucessfully.</t>
+  </si>
+  <si>
+    <t>Message displayed that Mobile number should be 10 digits only.</t>
+  </si>
+  <si>
+    <t>Message  displayed that OTP sent sucessfully</t>
+  </si>
+  <si>
+    <t>Message displayed that Thanks for your intrest. You will be contacted by one of our representative shortly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message displayed that contact number is invalid. </t>
+  </si>
+  <si>
+    <t>Message displayed that all fields are required except last name.</t>
+  </si>
+  <si>
+    <t>Message displayed that Thanks For Contacting us. We will get back to you shortly.</t>
+  </si>
+  <si>
+    <t>Message displayed that contact number and email id is invalid.</t>
+  </si>
+  <si>
+    <t>Message displayed that email id is invalid.</t>
+  </si>
+  <si>
+    <t>User directly reach on the screen where user order pizza</t>
+  </si>
+  <si>
+    <t>User reach on the screen where user have different Payment Options are available.</t>
+  </si>
+  <si>
+    <t>All type of margherita pizzas are displayed on the screen.</t>
+  </si>
+  <si>
+    <t>Message displayed that no results founf for queen cheeze pizza</t>
+  </si>
+  <si>
+    <t>Pizza Selection</t>
+  </si>
+  <si>
+    <t>Message  displayed that OTP sent sucessfully.</t>
   </si>
 </sst>
 </file>
@@ -762,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -800,9 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1108,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
@@ -1206,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>22</v>
@@ -1235,7 +1268,7 @@
         <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>22</v>
@@ -1261,18 +1294,18 @@
         <v>29</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -1287,13 +1320,13 @@
         <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>22</v>
@@ -1301,10 +1334,10 @@
     </row>
     <row r="7" spans="1:10" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>17</v>
@@ -1313,16 +1346,16 @@
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>22</v>
@@ -1330,10 +1363,10 @@
     </row>
     <row r="8" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1342,16 +1375,16 @@
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>22</v>
@@ -1359,28 +1392,28 @@
     </row>
     <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>22</v>
@@ -1388,28 +1421,28 @@
     </row>
     <row r="10" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>22</v>
@@ -1417,28 +1450,28 @@
     </row>
     <row r="11" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>22</v>
@@ -1446,116 +1479,116 @@
     </row>
     <row r="12" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>22</v>
@@ -1563,28 +1596,28 @@
     </row>
     <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>22</v>
@@ -1592,10 +1625,10 @@
     </row>
     <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
@@ -1604,16 +1637,16 @@
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>22</v>
@@ -1621,28 +1654,28 @@
     </row>
     <row r="18" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -1650,28 +1683,28 @@
     </row>
     <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>22</v>
@@ -1679,28 +1712,28 @@
     </row>
     <row r="20" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>22</v>
@@ -1708,28 +1741,28 @@
     </row>
     <row r="21" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>22</v>
@@ -1737,115 +1770,112 @@
     </row>
     <row r="22" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>22</v>
@@ -1853,28 +1883,28 @@
     </row>
     <row r="26" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E26" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>22</v>
@@ -1883,13 +1913,13 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1900,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,379 +1951,379 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="C3" s="20">
+        <v>45413</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="E3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="F3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="21">
-        <v>45413</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="H3" s="6">
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="20">
         <v>45413</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>140</v>
+      <c r="D4" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>151</v>
+      <c r="I4" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="20">
         <v>45413</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>140</v>
+      <c r="D5" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H5" s="6">
         <v>1</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>151</v>
+      <c r="I5" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="B6" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="20">
         <v>45413</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>140</v>
+      <c r="D6" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>151</v>
+      <c r="I6" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="21">
+      <c r="A7" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="20">
         <v>45413</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>140</v>
+      <c r="D7" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H7" s="6">
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="21">
+      <c r="A8" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="20">
         <v>45413</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>140</v>
+      <c r="D8" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="A9" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="20">
         <v>45413</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>140</v>
+      <c r="D9" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H9" s="6">
         <v>1</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Manual Testing/Assessments/Lapinoz Pizza/Test Cases & Defect Report of Lapinoz Pizza Website.xlsx
+++ b/Manual Testing/Assessments/Lapinoz Pizza/Test Cases & Defect Report of Lapinoz Pizza Website.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="174">
   <si>
     <t>Testcase id</t>
   </si>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,6 +1871,9 @@
       <c r="E25" s="12" t="s">
         <v>116</v>
       </c>
+      <c r="F25" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="G25" s="12" t="s">
         <v>114</v>
       </c>
@@ -1930,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Manual Testing/Assessments/Lapinoz Pizza/Test Cases & Defect Report of Lapinoz Pizza Website.xlsx
+++ b/Manual Testing/Assessments/Lapinoz Pizza/Test Cases & Defect Report of Lapinoz Pizza Website.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Lapinoz" sheetId="1" r:id="rId1"/>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
